--- a/Result/sgRNA/figure4/RNA-A_layers_found.xlsx
+++ b/Result/sgRNA/figure4/RNA-A_layers_found.xlsx
@@ -1,26 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="27">
+  <si>
+    <t>base_name</t>
+  </si>
+  <si>
+    <t>theoretical_mass</t>
+  </si>
+  <si>
+    <t>n_position</t>
+  </si>
+  <si>
+    <t>monoisotopic_mass</t>
+  </si>
+  <si>
+    <t>sum_intensity</t>
+  </si>
+  <si>
+    <t>apex_rt</t>
+  </si>
+  <si>
+    <t>relative_abundance</t>
+  </si>
+  <si>
+    <t>ladder_type</t>
+  </si>
+  <si>
+    <t>log_intensity</t>
+  </si>
+  <si>
+    <t>position_5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>RNA-A native 3'</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>K adducted RNA-A 3'</t>
+  </si>
+  <si>
+    <t>Na adducted RNA-A 3'</t>
+  </si>
+  <si>
+    <t>2Na1K adducted RNA-A 3'</t>
+  </si>
+  <si>
+    <t>NaK adducted RNA-A 3'</t>
+  </si>
+  <si>
+    <t>triethylamine adducted RNA-A 3'</t>
+  </si>
+  <si>
+    <t>RNA-A native 5'</t>
+  </si>
+  <si>
+    <t>dehydrated RNA-A 5'</t>
+  </si>
+  <si>
+    <t>K adducted RNA-A 5'</t>
+  </si>
+  <si>
+    <t>Na adducted RNA-A 5'</t>
+  </si>
+  <si>
+    <t>2Na1K adducted RNA-A 5'</t>
+  </si>
+  <si>
+    <t>NaK adducted RNA-A 5'</t>
+  </si>
+  <si>
+    <t>triethylamine adducted RNA-A 5'</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28,19 +133,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -48,9 +490,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -58,11 +742,63 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,75 +1081,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
+    <col min="11" max="12" width="12.6875"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>base_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>theoretical_mass</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n_position</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>monoisotopic_mass</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sum_intensity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>apex_rt</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>relative_abundance</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ladder_type</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>log_intensity</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>position_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>612.14411</v>
@@ -433,26 +1153,22 @@
       <c r="G2">
         <v>0.428521731141375</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>6.499549628654719</v>
+        <v>6.49954962865472</v>
       </c>
       <c r="J2">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>957.1915099999999</v>
+        <v>957.19151</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -469,23 +1185,19 @@
       <c r="G3">
         <v>0.564653813868976</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>6.619359043811671</v>
+        <v>6.61935904381167</v>
       </c>
       <c r="J3">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1263.21681</v>
@@ -505,10 +1217,8 @@
       <c r="G4">
         <v>0.833494482745626</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
       <c r="I4">
         <v>6.78847950734235</v>
@@ -517,11 +1227,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1568.25811</v>
@@ -539,25 +1247,21 @@
         <v>1.00617129362424</v>
       </c>
       <c r="G5">
-        <v>0.7726423191344149</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+        <v>0.772642319134415</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>6.755555269569017</v>
+        <v>6.75555526956902</v>
       </c>
       <c r="J5">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1897.31061</v>
@@ -577,23 +1281,19 @@
       <c r="G6">
         <v>1.96900567670546</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H6" t="s">
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>7.161823746173254</v>
+        <v>7.16182374617325</v>
       </c>
       <c r="J6">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2203.33591</v>
@@ -613,23 +1313,19 @@
       <c r="G7">
         <v>1.63468458843933</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H7" t="s">
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>7.081010746128598</v>
+        <v>7.0810107461286</v>
       </c>
       <c r="J7">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2509.36121</v>
@@ -649,10 +1345,8 @@
       <c r="G8">
         <v>1.33514550331351</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H8" t="s">
+        <v>11</v>
       </c>
       <c r="I8">
         <v>6.99310537536666</v>
@@ -661,11 +1355,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2838.41371</v>
@@ -685,23 +1377,19 @@
       <c r="G9">
         <v>2.65407338409469</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H9" t="s">
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>7.291489704716239</v>
+        <v>7.29148970471624</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3143.45501</v>
@@ -721,23 +1409,19 @@
       <c r="G10">
         <v>1.65287379752798</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H10" t="s">
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>7.085816472942008</v>
+        <v>7.08581647294201</v>
       </c>
       <c r="J10">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
         <v>3448.49631</v>
@@ -757,26 +1441,22 @@
       <c r="G11">
         <v>1.10810253725635</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H11" t="s">
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>6.912156727243783</v>
+        <v>6.91215672724378</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>3777.548809999999</v>
+        <v>3777.54881</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -793,23 +1473,19 @@
       <c r="G12">
         <v>1.89504838942908</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H12" t="s">
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>7.145197081959185</v>
+        <v>7.14519708195918</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>4083.57411</v>
@@ -829,23 +1505,19 @@
       <c r="G13">
         <v>1.26415755826117</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H13" t="s">
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>6.969377983555651</v>
+        <v>6.96937798355565</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4389.59941</v>
@@ -865,23 +1537,19 @@
       <c r="G14">
         <v>1.11181673000722</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H14" t="s">
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>6.913609982725077</v>
+        <v>6.91360998272508</v>
       </c>
       <c r="J14">
         <v>7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>12</v>
       </c>
       <c r="B15">
         <v>4734.64681</v>
@@ -901,23 +1569,19 @@
       <c r="G15">
         <v>1.44204010332332</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H15" t="s">
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>7.026554116286175</v>
+        <v>7.02655411628618</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>14</v>
       </c>
       <c r="B16">
         <v>5039.68811</v>
@@ -937,23 +1601,19 @@
       <c r="G16">
         <v>1.06133207648957</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H16" t="s">
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>6.893428067997532</v>
+        <v>6.89342806799753</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>14</v>
       </c>
       <c r="B17">
         <v>5344.72941</v>
@@ -973,23 +1633,19 @@
       <c r="G17">
         <v>0.690948877140364</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H17" t="s">
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>6.707022693344277</v>
+        <v>6.70702269334428</v>
       </c>
       <c r="J17">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5673.78191</v>
@@ -1009,26 +1665,22 @@
       <c r="G18">
         <v>0.575759199311377</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H18" t="s">
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>6.627817663670021</v>
+        <v>6.62781766367002</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>6002.834409999999</v>
+        <v>6002.83441</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -1045,26 +1697,22 @@
       <c r="G19">
         <v>0.946578744742695</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H19" t="s">
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>6.843733526184783</v>
+        <v>6.84373352618478</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>6331.886909999999</v>
+        <v>6331.88691</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1073,7 +1721,7 @@
         <v>6331.86688391133</v>
       </c>
       <c r="E20">
-        <v>737185489.1900001</v>
+        <v>737185489.19</v>
       </c>
       <c r="F20">
         <v>15.9668028866927</v>
@@ -1081,23 +1729,19 @@
       <c r="G20">
         <v>100</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>RNA-A native 3'</t>
-        </is>
+      <c r="H20" t="s">
+        <v>11</v>
       </c>
       <c r="I20">
-        <v>8.867576777948644</v>
+        <v>8.86757677794864</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>13</v>
       </c>
       <c r="B21">
         <v>1301.15581</v>
@@ -1117,23 +1761,19 @@
       <c r="G21">
         <v>0.0636771608887453</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H21" t="s">
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>5.671560469646872</v>
+        <v>5.67156046964687</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>14</v>
       </c>
       <c r="B22">
         <v>1606.19711</v>
@@ -1153,23 +1793,19 @@
       <c r="G22">
         <v>0.0529494470148742</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H22" t="s">
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>5.591438206799272</v>
+        <v>5.59143820679927</v>
       </c>
       <c r="J22">
         <v>16</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>10</v>
       </c>
       <c r="B23">
         <v>1935.24961</v>
@@ -1189,23 +1825,19 @@
       <c r="G23">
         <v>0.243368318599337</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H23" t="s">
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>6.253840819578857</v>
+        <v>6.25384081957886</v>
       </c>
       <c r="J23">
         <v>15</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>13</v>
       </c>
       <c r="B24">
         <v>2241.27491</v>
@@ -1225,10 +1857,8 @@
       <c r="G24">
         <v>0.194698828320273</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H24" t="s">
+        <v>15</v>
       </c>
       <c r="I24">
         <v>6.1569401159321</v>
@@ -1237,11 +1867,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>13</v>
       </c>
       <c r="B25">
         <v>2547.30021</v>
@@ -1261,23 +1889,19 @@
       <c r="G25">
         <v>0.153523257931126</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H25" t="s">
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>6.053750955976851</v>
+        <v>6.05375095597685</v>
       </c>
       <c r="J25">
         <v>13</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>10</v>
       </c>
       <c r="B26">
         <v>2876.35271</v>
@@ -1297,23 +1921,19 @@
       <c r="G26">
         <v>0.320726516551199</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H26" t="s">
+        <v>15</v>
       </c>
       <c r="I26">
-        <v>6.373711645316438</v>
+        <v>6.37371164531644</v>
       </c>
       <c r="J26">
         <v>12</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>14</v>
       </c>
       <c r="B27">
         <v>3181.39401</v>
@@ -1333,26 +1953,22 @@
       <c r="G27">
         <v>0.226408870559011</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H27" t="s">
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>6.222470216186437</v>
+        <v>6.22247021618644</v>
       </c>
       <c r="J27">
         <v>11</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>3486.435309999999</v>
+        <v>3486.43531</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -1369,26 +1985,22 @@
       <c r="G28">
         <v>0.122137736458882</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H28" t="s">
+        <v>15</v>
       </c>
       <c r="I28">
-        <v>5.954426645036963</v>
+        <v>5.95442664503696</v>
       </c>
       <c r="J28">
         <v>10</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>3815.487809999999</v>
+        <v>3815.48781</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -1405,23 +2017,19 @@
       <c r="G29">
         <v>0.198343274717274</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H29" t="s">
+        <v>15</v>
       </c>
       <c r="I29">
-        <v>6.164994257259978</v>
+        <v>6.16499425725998</v>
       </c>
       <c r="J29">
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>13</v>
       </c>
       <c r="B30">
         <v>4121.51311</v>
@@ -1441,23 +2049,19 @@
       <c r="G30">
         <v>0.139088512326337</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H30" t="s">
+        <v>15</v>
       </c>
       <c r="I30">
-        <v>6.010868039937063</v>
+        <v>6.01086803993706</v>
       </c>
       <c r="J30">
         <v>8</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>13</v>
       </c>
       <c r="B31">
         <v>4427.53841</v>
@@ -1477,10 +2081,8 @@
       <c r="G31">
         <v>0.1168712301902</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H31" t="s">
+        <v>15</v>
       </c>
       <c r="I31">
         <v>5.93528439340998</v>
@@ -1489,11 +2091,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>12</v>
       </c>
       <c r="B32">
         <v>4772.58581</v>
@@ -1513,10 +2113,8 @@
       <c r="G32">
         <v>0.137246844225284</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H32" t="s">
+        <v>15</v>
       </c>
       <c r="I32">
         <v>6.00507914526894</v>
@@ -1525,11 +2123,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>14</v>
       </c>
       <c r="B33">
         <v>5077.62711</v>
@@ -1549,23 +2145,19 @@
       <c r="G33">
         <v>0.102216105857964</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H33" t="s">
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>5.877096109502194</v>
+        <v>5.87709610950219</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>14</v>
       </c>
       <c r="B34">
         <v>5382.66841</v>
@@ -1585,23 +2177,19 @@
       <c r="G34">
         <v>0.0705974205449756</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H34" t="s">
+        <v>15</v>
       </c>
       <c r="I34">
-        <v>5.716365611244802</v>
+        <v>5.7163656112448</v>
       </c>
       <c r="J34">
         <v>4</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>10</v>
       </c>
       <c r="B35">
         <v>5711.72091</v>
@@ -1621,23 +2209,19 @@
       <c r="G35">
         <v>0.0548986918400523</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H35" t="s">
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>5.607138773884792</v>
+        <v>5.60713877388479</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>10</v>
       </c>
       <c r="B36">
         <v>6040.77341</v>
@@ -1657,23 +2241,19 @@
       <c r="G36">
         <v>0.0888659122576889</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H36" t="s">
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>5.816311981468336</v>
+        <v>5.81631198146834</v>
       </c>
       <c r="J36">
         <v>2</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>10</v>
       </c>
       <c r="B37">
         <v>6369.82591</v>
@@ -1693,26 +2273,22 @@
       <c r="G37">
         <v>10.019178337484</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 3'</t>
-        </is>
+      <c r="H37" t="s">
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>7.868408884896192</v>
+        <v>7.86840888489619</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>979.1646099999999</v>
+        <v>979.16461</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1729,23 +2305,19 @@
       <c r="G38">
         <v>0.148792466222473</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H38" t="s">
+        <v>16</v>
       </c>
       <c r="I38">
-        <v>6.040157720174372</v>
+        <v>6.04015772017437</v>
       </c>
       <c r="J38">
         <v>18</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>13</v>
       </c>
       <c r="B39">
         <v>1285.18991</v>
@@ -1765,23 +2337,19 @@
       <c r="G39">
         <v>0.161620405918343</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H39" t="s">
+        <v>16</v>
       </c>
       <c r="I39">
-        <v>6.076072971133803</v>
+        <v>6.0760729711338</v>
       </c>
       <c r="J39">
         <v>17</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>14</v>
       </c>
       <c r="B40">
         <v>1590.23121</v>
@@ -1799,25 +2367,21 @@
         <v>1.00617129362424</v>
       </c>
       <c r="G40">
-        <v>0.09219616771713569</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+        <v>0.0921961677171357</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
       </c>
       <c r="I40">
-        <v>5.832289647224713</v>
+        <v>5.83228964722471</v>
       </c>
       <c r="J40">
         <v>16</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>10</v>
       </c>
       <c r="B41">
         <v>1919.28371</v>
@@ -1837,23 +2401,19 @@
       <c r="G41">
         <v>0.145095174238341</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H41" t="s">
+        <v>16</v>
       </c>
       <c r="I41">
-        <v>6.029229746302911</v>
+        <v>6.02922974630291</v>
       </c>
       <c r="J41">
         <v>15</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>13</v>
       </c>
       <c r="B42">
         <v>2225.30901</v>
@@ -1873,23 +2433,19 @@
       <c r="G42">
         <v>0.175268422798131</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H42" t="s">
+        <v>16</v>
       </c>
       <c r="I42">
-        <v>6.111280456507791</v>
+        <v>6.11128045650779</v>
       </c>
       <c r="J42">
         <v>14</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>13</v>
       </c>
       <c r="B43">
         <v>2531.33431</v>
@@ -1909,10 +2465,8 @@
       <c r="G43">
         <v>0.120175740433174</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H43" t="s">
+        <v>16</v>
       </c>
       <c r="I43">
         <v>5.94739358455587</v>
@@ -1921,11 +2475,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>10</v>
       </c>
       <c r="B44">
         <v>2860.38681</v>
@@ -1945,23 +2497,19 @@
       <c r="G44">
         <v>0.235121354857986</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H44" t="s">
+        <v>16</v>
       </c>
       <c r="I44">
-        <v>6.238868853589127</v>
+        <v>6.23886885358913</v>
       </c>
       <c r="J44">
         <v>12</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>14</v>
       </c>
       <c r="B45">
         <v>3470.46941</v>
@@ -1981,26 +2529,22 @@
       <c r="G45">
         <v>0.0980168520129088</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H45" t="s">
+        <v>16</v>
       </c>
       <c r="I45">
-        <v>5.858877528202618</v>
+        <v>5.85887752820262</v>
       </c>
       <c r="J45">
         <v>10</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>3799.521909999999</v>
+        <v>3799.52191</v>
       </c>
       <c r="C46">
         <v>12</v>
@@ -2017,23 +2561,19 @@
       <c r="G46">
         <v>0.219346935569325</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H46" t="s">
+        <v>16</v>
       </c>
       <c r="I46">
-        <v>6.208708349333196</v>
+        <v>6.2087083493332</v>
       </c>
       <c r="J46">
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>13</v>
       </c>
       <c r="B47">
         <v>4105.54721</v>
@@ -2053,23 +2593,19 @@
       <c r="G47">
         <v>0.112909182587759</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H47" t="s">
+        <v>16</v>
       </c>
       <c r="I47">
-        <v>5.920306041264441</v>
+        <v>5.92030604126444</v>
       </c>
       <c r="J47">
         <v>8</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>13</v>
       </c>
       <c r="B48">
         <v>4411.57251</v>
@@ -2089,23 +2625,19 @@
       <c r="G48">
         <v>0.0983393081701253</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H48" t="s">
+        <v>16</v>
       </c>
       <c r="I48">
-        <v>5.860303926595141</v>
+        <v>5.86030392659514</v>
       </c>
       <c r="J48">
         <v>7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>12</v>
       </c>
       <c r="B49">
         <v>4756.61991</v>
@@ -2125,23 +2657,19 @@
       <c r="G49">
         <v>0.119103605927558</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H49" t="s">
+        <v>16</v>
       </c>
       <c r="I49">
-        <v>5.943501688136158</v>
+        <v>5.94350168813616</v>
       </c>
       <c r="J49">
         <v>6</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>14</v>
       </c>
       <c r="B50">
         <v>5061.66121</v>
@@ -2161,23 +2689,19 @@
       <c r="G50">
         <v>0.0986713833446774</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H50" t="s">
+        <v>16</v>
       </c>
       <c r="I50">
-        <v>5.861767994878523</v>
+        <v>5.86176799487852</v>
       </c>
       <c r="J50">
         <v>5</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>14</v>
       </c>
       <c r="B51">
         <v>5366.70251</v>
@@ -2197,23 +2721,19 @@
       <c r="G51">
         <v>0.0679168061962433</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H51" t="s">
+        <v>16</v>
       </c>
       <c r="I51">
-        <v>5.699554032864745</v>
+        <v>5.69955403286474</v>
       </c>
       <c r="J51">
         <v>4</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>10</v>
       </c>
       <c r="B52">
         <v>5695.75501</v>
@@ -2233,23 +2753,19 @@
       <c r="G52">
         <v>0.0555285495987965</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H52" t="s">
+        <v>16</v>
       </c>
       <c r="I52">
-        <v>5.612093107832779</v>
+        <v>5.61209310783278</v>
       </c>
       <c r="J52">
         <v>3</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>10</v>
       </c>
       <c r="B53">
         <v>6024.80751</v>
@@ -2269,26 +2785,22 @@
       <c r="G53">
         <v>0.081654472154817</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H53" t="s">
+        <v>16</v>
       </c>
       <c r="I53">
-        <v>5.779556753659064</v>
+        <v>5.77955675365906</v>
       </c>
       <c r="J53">
         <v>2</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>6353.860009999999</v>
+        <v>6353.86001</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -2305,23 +2817,19 @@
       <c r="G54">
         <v>4.50809045448189</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 3'</t>
-        </is>
+      <c r="H54" t="s">
+        <v>16</v>
       </c>
       <c r="I54">
-        <v>7.521569399494902</v>
+        <v>7.5215693994949</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>10</v>
       </c>
       <c r="B55">
         <v>1979.21297</v>
@@ -2333,31 +2841,27 @@
         <v>1979.21196717712</v>
       </c>
       <c r="E55">
-        <v>70589.99000000001</v>
+        <v>70589.99</v>
       </c>
       <c r="F55">
         <v>1.16559661981265</v>
       </c>
       <c r="G55">
-        <v>0.009575607636764859</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+        <v>0.00957560763676486</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
       </c>
       <c r="I55">
-        <v>4.848743120372166</v>
+        <v>4.84874312037217</v>
       </c>
       <c r="J55">
         <v>15</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>13</v>
       </c>
       <c r="B56">
         <v>2285.23827</v>
@@ -2377,23 +2881,19 @@
       <c r="G56">
         <v>0.0138558899351414</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H56" t="s">
+        <v>17</v>
       </c>
       <c r="I56">
-        <v>5.009211202798691</v>
+        <v>5.00921120279869</v>
       </c>
       <c r="J56">
         <v>14</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>13</v>
       </c>
       <c r="B57">
         <v>2591.26357</v>
@@ -2413,23 +2913,19 @@
       <c r="G57">
         <v>0.0128992853758535</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H57" t="s">
+        <v>17</v>
       </c>
       <c r="I57">
-        <v>4.978142428874232</v>
+        <v>4.97814242887423</v>
       </c>
       <c r="J57">
         <v>13</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>10</v>
       </c>
       <c r="B58">
         <v>2920.31607</v>
@@ -2449,23 +2945,19 @@
       <c r="G58">
         <v>0.0243858760971442</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H58" t="s">
+        <v>17</v>
       </c>
       <c r="I58">
-        <v>5.254715140801001</v>
+        <v>5.254715140801</v>
       </c>
       <c r="J58">
         <v>12</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>14</v>
       </c>
       <c r="B59">
         <v>3225.35737</v>
@@ -2485,23 +2977,19 @@
       <c r="G59">
         <v>0.0122857179540409</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H59" t="s">
+        <v>17</v>
       </c>
       <c r="I59">
-        <v>4.956977318851633</v>
+        <v>4.95697731885163</v>
       </c>
       <c r="J59">
         <v>11</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>14</v>
       </c>
       <c r="B60">
         <v>3530.39867</v>
@@ -2521,26 +3009,22 @@
       <c r="G60">
         <v>0.00356891045548227</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H60" t="s">
+        <v>17</v>
       </c>
       <c r="I60">
-        <v>4.420112429524984</v>
+        <v>4.42011242952498</v>
       </c>
       <c r="J60">
         <v>10</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>3859.451169999999</v>
+        <v>3859.45117</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -2557,23 +3041,19 @@
       <c r="G61">
         <v>0.0102628973452976</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H61" t="s">
+        <v>17</v>
       </c>
       <c r="I61">
-        <v>4.878846762841507</v>
+        <v>4.87884676284151</v>
       </c>
       <c r="J61">
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>13</v>
       </c>
       <c r="B62">
         <v>4471.50177</v>
@@ -2593,10 +3073,8 @@
       <c r="G62">
         <v>0.00463643553775796</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H62" t="s">
+        <v>17</v>
       </c>
       <c r="I62">
         <v>4.53376100393744</v>
@@ -2605,11 +3083,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>12</v>
       </c>
       <c r="B63">
         <v>4816.54917</v>
@@ -2629,10 +3105,8 @@
       <c r="G63">
         <v>0.0102954115501368</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H63" t="s">
+        <v>17</v>
       </c>
       <c r="I63">
         <v>4.88022048979449</v>
@@ -2641,11 +3115,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>14</v>
       </c>
       <c r="B64">
         <v>5121.59047</v>
@@ -2665,23 +3137,19 @@
       <c r="G64">
         <v>0.00582518791127916</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 3'</t>
-        </is>
+      <c r="H64" t="s">
+        <v>17</v>
       </c>
       <c r="I64">
-        <v>4.632886717520576</v>
+        <v>4.63288671752058</v>
       </c>
       <c r="J64">
         <v>5</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>14</v>
       </c>
       <c r="B65">
         <v>1628.1681</v>
@@ -2701,23 +3169,19 @@
       <c r="G65">
         <v>0.0164393781181394</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H65" t="s">
+        <v>18</v>
       </c>
       <c r="I65">
-        <v>5.083462162626595</v>
+        <v>5.08346216262659</v>
       </c>
       <c r="J65">
         <v>16</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>10</v>
       </c>
       <c r="B66">
         <v>1957.2206</v>
@@ -2737,23 +3201,19 @@
       <c r="G66">
         <v>0.0478912994323748</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H66" t="s">
+        <v>18</v>
       </c>
       <c r="I66">
-        <v>5.547833398842867</v>
+        <v>5.54783339884287</v>
       </c>
       <c r="J66">
         <v>15</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>13</v>
       </c>
       <c r="B67">
         <v>2263.2459</v>
@@ -2773,23 +3233,19 @@
       <c r="G67">
         <v>0.0541628824569946</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H67" t="s">
+        <v>18</v>
       </c>
       <c r="I67">
-        <v>5.601278546658527</v>
+        <v>5.60127854665853</v>
       </c>
       <c r="J67">
         <v>14</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>13</v>
       </c>
       <c r="B68">
         <v>2569.2712</v>
@@ -2809,23 +3265,19 @@
       <c r="G68">
         <v>0.0421643798688348</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H68" t="s">
+        <v>18</v>
       </c>
       <c r="I68">
-        <v>5.492522495287597</v>
+        <v>5.4925224952876</v>
       </c>
       <c r="J68">
         <v>13</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>10</v>
       </c>
       <c r="B69">
         <v>2898.3237</v>
@@ -2843,12 +3295,10 @@
         <v>2.40277428782781</v>
       </c>
       <c r="G69">
-        <v>0.07685430713272989</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+        <v>0.0768543071327299</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
       </c>
       <c r="I69">
         <v>5.75324498955748</v>
@@ -2857,11 +3307,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>14</v>
       </c>
       <c r="B70">
         <v>3203.365</v>
@@ -2881,10 +3329,8 @@
       <c r="G70">
         <v>0.0473971171602844</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H70" t="s">
+        <v>18</v>
       </c>
       <c r="I70">
         <v>5.54332870528823</v>
@@ -2893,11 +3339,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>14</v>
       </c>
       <c r="B71">
         <v>3508.4063</v>
@@ -2917,10 +3361,8 @@
       <c r="G71">
         <v>0.0237913907112727</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H71" t="s">
+        <v>18</v>
       </c>
       <c r="I71">
         <v>5.24399660714769</v>
@@ -2929,14 +3371,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>3837.458799999999</v>
+        <v>3837.4588</v>
       </c>
       <c r="C72">
         <v>12</v>
@@ -2953,23 +3393,19 @@
       <c r="G72">
         <v>0.0443401918232487</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H72" t="s">
+        <v>18</v>
       </c>
       <c r="I72">
-        <v>5.514374345563338</v>
+        <v>5.51437434556334</v>
       </c>
       <c r="J72">
         <v>9</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>13</v>
       </c>
       <c r="B73">
         <v>4143.4841</v>
@@ -2989,23 +3425,19 @@
       <c r="G73">
         <v>0.0259962523422117</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H73" t="s">
+        <v>18</v>
       </c>
       <c r="I73">
-        <v>5.282487521903709</v>
+        <v>5.28248752190371</v>
       </c>
       <c r="J73">
         <v>8</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>13</v>
       </c>
       <c r="B74">
         <v>4449.5094</v>
@@ -3025,23 +3457,19 @@
       <c r="G74">
         <v>0.0184471292495762</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H74" t="s">
+        <v>18</v>
       </c>
       <c r="I74">
-        <v>5.133505568602373</v>
+        <v>5.13350556860237</v>
       </c>
       <c r="J74">
         <v>7</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>12</v>
       </c>
       <c r="B75">
         <v>4794.5568</v>
@@ -3061,23 +3489,19 @@
       <c r="G75">
         <v>0.0294123695025848</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H75" t="s">
+        <v>18</v>
       </c>
       <c r="I75">
-        <v>5.336106791250169</v>
+        <v>5.33610679125017</v>
       </c>
       <c r="J75">
         <v>6</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>14</v>
       </c>
       <c r="B76">
         <v>5099.5981</v>
@@ -3097,23 +3521,19 @@
       <c r="G76">
         <v>0.022368847789067</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H76" t="s">
+        <v>18</v>
       </c>
       <c r="I76">
-        <v>5.217220392276045</v>
+        <v>5.21722039227604</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>14</v>
       </c>
       <c r="B77">
         <v>5404.6394</v>
@@ -3133,23 +3553,19 @@
       <c r="G77">
         <v>0.0127782140833379</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H77" t="s">
+        <v>18</v>
       </c>
       <c r="I77">
-        <v>4.974046937878234</v>
+        <v>4.97404693787823</v>
       </c>
       <c r="J77">
         <v>4</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>10</v>
       </c>
       <c r="B78">
         <v>5733.6919</v>
@@ -3169,23 +3585,19 @@
       <c r="G78">
         <v>0.0117574614898125</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H78" t="s">
+        <v>18</v>
       </c>
       <c r="I78">
-        <v>4.937890342888401</v>
+        <v>4.9378903428884</v>
       </c>
       <c r="J78">
         <v>3</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>10</v>
       </c>
       <c r="B79">
         <v>6062.7444</v>
@@ -3205,26 +3617,22 @@
       <c r="G79">
         <v>0.0214721684462244</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H79" t="s">
+        <v>18</v>
       </c>
       <c r="I79">
-        <v>5.199452683431711</v>
+        <v>5.19945268343171</v>
       </c>
       <c r="J79">
         <v>2</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>10</v>
       </c>
       <c r="B80">
-        <v>6391.796899999999</v>
+        <v>6391.7969</v>
       </c>
       <c r="C80">
         <v>20</v>
@@ -3241,23 +3649,19 @@
       <c r="G80">
         <v>0.328409497406157</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 3'</t>
-        </is>
+      <c r="H80" t="s">
+        <v>18</v>
       </c>
       <c r="I80">
-        <v>6.383992486114209</v>
+        <v>6.38399248611421</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>14</v>
       </c>
       <c r="B81">
         <v>3244.56091</v>
@@ -3277,23 +3681,19 @@
       <c r="G81">
         <v>0.00476981987784859</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H81" t="s">
+        <v>19</v>
       </c>
       <c r="I81">
-        <v>4.546078757086572</v>
+        <v>4.54607875708657</v>
       </c>
       <c r="J81">
         <v>11</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>14</v>
       </c>
       <c r="B82">
         <v>3549.60221</v>
@@ -3313,26 +3713,22 @@
       <c r="G82">
         <v>0.00288508527526352</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H82" t="s">
+        <v>19</v>
       </c>
       <c r="I82">
-        <v>4.327735432192235</v>
+        <v>4.32773543219224</v>
       </c>
       <c r="J82">
         <v>10</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>3878.654709999999</v>
+        <v>3878.65471</v>
       </c>
       <c r="C83">
         <v>12</v>
@@ -3349,26 +3745,22 @@
       <c r="G83">
         <v>0.0113733695561648</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H83" t="s">
+        <v>19</v>
       </c>
       <c r="I83">
-        <v>4.923465928903022</v>
+        <v>4.92346592890302</v>
       </c>
       <c r="J83">
         <v>9</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>13</v>
       </c>
       <c r="B84">
-        <v>4184.680009999999</v>
+        <v>4184.68001</v>
       </c>
       <c r="C84">
         <v>13</v>
@@ -3385,26 +3777,22 @@
       <c r="G84">
         <v>0.00701235994984113</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H84" t="s">
+        <v>19</v>
       </c>
       <c r="I84">
-        <v>4.713440978613067</v>
+        <v>4.71344097861307</v>
       </c>
       <c r="J84">
         <v>8</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>4490.705309999999</v>
+        <v>4490.70531</v>
       </c>
       <c r="C85">
         <v>14</v>
@@ -3421,23 +3809,19 @@
       <c r="G85">
         <v>0.00817285077955076</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H85" t="s">
+        <v>19</v>
       </c>
       <c r="I85">
-        <v>4.779950347562501</v>
+        <v>4.7799503475625</v>
       </c>
       <c r="J85">
         <v>7</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>12</v>
       </c>
       <c r="B86">
         <v>4835.75271</v>
@@ -3457,10 +3841,8 @@
       <c r="G86">
         <v>0.0124090383412882</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H86" t="s">
+        <v>19</v>
       </c>
       <c r="I86">
         <v>4.9613149043906</v>
@@ -3469,11 +3851,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>14</v>
       </c>
       <c r="B87">
         <v>5140.79401</v>
@@ -3493,26 +3873,22 @@
       <c r="G87">
         <v>0.0188137411864131</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H87" t="s">
+        <v>19</v>
       </c>
       <c r="I87">
-        <v>5.142051943252222</v>
+        <v>5.14205194325222</v>
       </c>
       <c r="J87">
         <v>5</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>5445.835309999999</v>
+        <v>5445.83531</v>
       </c>
       <c r="C88">
         <v>17</v>
@@ -3529,26 +3905,22 @@
       <c r="G88">
         <v>0.0208976522542883</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H88" t="s">
+        <v>19</v>
       </c>
       <c r="I88">
-        <v>5.187674276008044</v>
+        <v>5.18767427600804</v>
       </c>
       <c r="J88">
         <v>4</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>10</v>
       </c>
       <c r="B89">
-        <v>5774.887809999999</v>
+        <v>5774.88781</v>
       </c>
       <c r="C89">
         <v>18</v>
@@ -3565,26 +3937,22 @@
       <c r="G89">
         <v>0.0255253206634269</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+      <c r="H89" t="s">
+        <v>19</v>
       </c>
       <c r="I89">
-        <v>5.274547984593277</v>
+        <v>5.27454798459328</v>
       </c>
       <c r="J89">
         <v>3</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>10</v>
       </c>
       <c r="B90">
-        <v>6103.940309999999</v>
+        <v>6103.94031</v>
       </c>
       <c r="C90">
         <v>19</v>
@@ -3599,28 +3967,24 @@
         <v>14.9567439293543</v>
       </c>
       <c r="G90">
-        <v>0.06520214478558679</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+        <v>0.0652021447855868</v>
+      </c>
+      <c r="H90" t="s">
+        <v>19</v>
       </c>
       <c r="I90">
-        <v>5.681838659772972</v>
+        <v>5.68183865977297</v>
       </c>
       <c r="J90">
         <v>2</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>10</v>
       </c>
       <c r="B91">
-        <v>6432.992809999999</v>
+        <v>6432.99281</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -3635,25 +3999,21 @@
         <v>15.9668028866927</v>
       </c>
       <c r="G91">
-        <v>8.938732484059569</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 3'</t>
-        </is>
+        <v>8.93873248405957</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
       </c>
       <c r="I91">
-        <v>7.818852717974359</v>
+        <v>7.81885271797436</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>10</v>
       </c>
       <c r="B92">
         <v>1005.1725</v>
@@ -3673,10 +4033,8 @@
       <c r="G92">
         <v>0.409322863003654</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H92" t="s">
+        <v>20</v>
       </c>
       <c r="I92">
         <v>6.47964278108162</v>
@@ -3685,11 +4043,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>14</v>
       </c>
       <c r="B93">
         <v>1310.2138</v>
@@ -3709,10 +4065,8 @@
       <c r="G93">
         <v>0.684932122788791</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H93" t="s">
+        <v>20</v>
       </c>
       <c r="I93">
         <v>6.70322431271274</v>
@@ -3721,11 +4075,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>14</v>
       </c>
       <c r="B94">
         <v>1615.2551</v>
@@ -3745,23 +4097,19 @@
       <c r="G94">
         <v>0.923187422948032</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H94" t="s">
+        <v>20</v>
       </c>
       <c r="I94">
-        <v>6.832866657185912</v>
+        <v>6.83286665718591</v>
       </c>
       <c r="J94">
         <v>5</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>12</v>
       </c>
       <c r="B95">
         <v>1960.3025</v>
@@ -3781,23 +4129,19 @@
       <c r="G95">
         <v>0.673680694048497</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H95" t="s">
+        <v>20</v>
       </c>
       <c r="I95">
-        <v>6.696030879719694</v>
+        <v>6.69603087971969</v>
       </c>
       <c r="J95">
         <v>6</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>13</v>
       </c>
       <c r="B96">
         <v>2266.3278</v>
@@ -3817,23 +4161,19 @@
       <c r="G96">
         <v>0.995670465253587</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H96" t="s">
+        <v>20</v>
       </c>
       <c r="I96">
-        <v>6.865692402715124</v>
+        <v>6.86569240271512</v>
       </c>
       <c r="J96">
         <v>7</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>13</v>
       </c>
       <c r="B97">
         <v>2572.3531</v>
@@ -3853,23 +4193,19 @@
       <c r="G97">
         <v>1.46851669474598</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H97" t="s">
+        <v>20</v>
       </c>
       <c r="I97">
-        <v>7.034455666086894</v>
+        <v>7.03445566608689</v>
       </c>
       <c r="J97">
         <v>8</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>10</v>
       </c>
       <c r="B98">
         <v>2901.4056</v>
@@ -3889,23 +4225,19 @@
       <c r="G98">
         <v>0.90688031140517</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H98" t="s">
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>6.825126751308348</v>
+        <v>6.82512675130835</v>
       </c>
       <c r="J98">
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>14</v>
       </c>
       <c r="B99">
         <v>3206.4469</v>
@@ -3925,23 +4257,19 @@
       <c r="G99">
         <v>1.26124252122977</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H99" t="s">
+        <v>20</v>
       </c>
       <c r="I99">
-        <v>6.968375381971989</v>
+        <v>6.96837538197199</v>
       </c>
       <c r="J99">
         <v>10</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>14</v>
       </c>
       <c r="B100">
         <v>3511.4882</v>
@@ -3961,23 +4289,19 @@
       <c r="G100">
         <v>1.85936184596645</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H100" t="s">
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>7.136940692956943</v>
+        <v>7.13694069295694</v>
       </c>
       <c r="J100">
         <v>11</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>10</v>
       </c>
       <c r="B101">
         <v>3840.5407</v>
@@ -3992,28 +4316,24 @@
         <v>7385912.69</v>
       </c>
       <c r="F101">
-        <v>8.992704387076699</v>
+        <v>8.9927043870767</v>
       </c>
       <c r="G101">
         <v>1.00190695534654</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H101" t="s">
+        <v>20</v>
       </c>
       <c r="I101">
-        <v>6.868404169484019</v>
+        <v>6.86840416948402</v>
       </c>
       <c r="J101">
         <v>12</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>13</v>
       </c>
       <c r="B102">
         <v>4146.566</v>
@@ -4025,7 +4345,7 @@
         <v>4146.54935923696</v>
       </c>
       <c r="E102">
-        <v>9751208.550000001</v>
+        <v>9751208.55</v>
       </c>
       <c r="F102">
         <v>9.99963587876956</v>
@@ -4033,23 +4353,19 @@
       <c r="G102">
         <v>1.322761868348</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H102" t="s">
+        <v>20</v>
       </c>
       <c r="I102">
-        <v>6.989058444833837</v>
+        <v>6.98905844483384</v>
       </c>
       <c r="J102">
         <v>13</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>13</v>
       </c>
       <c r="B103">
         <v>4452.5913</v>
@@ -4069,23 +4385,19 @@
       <c r="G103">
         <v>1.8683917320638</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H103" t="s">
+        <v>20</v>
       </c>
       <c r="I103">
-        <v>7.139044714745177</v>
+        <v>7.13904471474518</v>
       </c>
       <c r="J103">
         <v>14</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>10</v>
       </c>
       <c r="B104">
         <v>4781.6438</v>
@@ -4105,23 +4417,19 @@
       <c r="G104">
         <v>0.722261726265166</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H104" t="s">
+        <v>20</v>
       </c>
       <c r="I104">
-        <v>6.726271379501104</v>
+        <v>6.7262713795011</v>
       </c>
       <c r="J104">
         <v>15</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>14</v>
       </c>
       <c r="B105">
         <v>5086.6851</v>
@@ -4141,23 +4449,19 @@
       <c r="G105">
         <v>1.1023503499681</v>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H105" t="s">
+        <v>20</v>
       </c>
       <c r="I105">
-        <v>6.909896422261407</v>
+        <v>6.90989642226141</v>
       </c>
       <c r="J105">
         <v>16</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>13</v>
       </c>
       <c r="B106">
         <v>5392.7104</v>
@@ -4169,7 +4473,7 @@
         <v>5392.68879477602</v>
       </c>
       <c r="E106">
-        <v>9012611.710000001</v>
+        <v>9012611.71</v>
       </c>
       <c r="F106">
         <v>14.8805006201744</v>
@@ -4177,23 +4481,19 @@
       <c r="G106">
         <v>1.22257041710124</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H106" t="s">
+        <v>20</v>
       </c>
       <c r="I106">
-        <v>6.954850660777239</v>
+        <v>6.95485066077724</v>
       </c>
       <c r="J106">
         <v>17</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>12</v>
       </c>
       <c r="B107">
         <v>5737.7578</v>
@@ -4213,23 +4513,19 @@
       <c r="G107">
         <v>1.10149578892581</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H107" t="s">
+        <v>20</v>
       </c>
       <c r="I107">
-        <v>6.909559619108805</v>
+        <v>6.9095596191088</v>
       </c>
       <c r="J107">
         <v>18</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>10</v>
       </c>
       <c r="B108">
         <v>6066.8103</v>
@@ -4249,26 +4545,22 @@
       <c r="G108">
         <v>0.762294696844154</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H108" t="s">
+        <v>20</v>
       </c>
       <c r="I108">
-        <v>6.749699676415603</v>
+        <v>6.7496996764156</v>
       </c>
       <c r="J108">
         <v>19</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>12</v>
       </c>
       <c r="B109">
-        <v>6331.886630000001</v>
+        <v>6331.88663</v>
       </c>
       <c r="C109">
         <v>20</v>
@@ -4277,7 +4569,7 @@
         <v>6331.86688391133</v>
       </c>
       <c r="E109">
-        <v>737185489.1900001</v>
+        <v>737185489.19</v>
       </c>
       <c r="F109">
         <v>15.9668028866927</v>
@@ -4285,26 +4577,22 @@
       <c r="G109">
         <v>100</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>RNA-A native 5'</t>
-        </is>
+      <c r="H109" t="s">
+        <v>20</v>
       </c>
       <c r="I109">
-        <v>8.867576777948644</v>
+        <v>8.86757677794864</v>
       </c>
       <c r="J109">
         <v>20</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>10</v>
       </c>
       <c r="B110">
-        <v>987.1452400000001</v>
+        <v>987.14524</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -4321,23 +4609,19 @@
       <c r="G110">
         <v>0.16799572267229</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H110" t="s">
+        <v>21</v>
       </c>
       <c r="I110">
-        <v>6.092875002272901</v>
+        <v>6.0928750022729</v>
       </c>
       <c r="J110">
         <v>3</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>14</v>
       </c>
       <c r="B111">
         <v>1292.18654</v>
@@ -4357,23 +4641,19 @@
       <c r="G111">
         <v>0.27399240077546</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H111" t="s">
+        <v>21</v>
       </c>
       <c r="I111">
-        <v>6.305315295706801</v>
+        <v>6.3053152957068</v>
       </c>
       <c r="J111">
         <v>4</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>14</v>
       </c>
       <c r="B112">
         <v>1597.22784</v>
@@ -4393,23 +4673,19 @@
       <c r="G112">
         <v>0.37595255069999</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H112" t="s">
+        <v>21</v>
       </c>
       <c r="I112">
-        <v>6.442709813648853</v>
+        <v>6.44270981364885</v>
       </c>
       <c r="J112">
         <v>5</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>12</v>
       </c>
       <c r="B113">
         <v>1942.27524</v>
@@ -4429,23 +4705,19 @@
       <c r="G113">
         <v>0.341621446288523</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H113" t="s">
+        <v>21</v>
       </c>
       <c r="I113">
-        <v>6.401121904931653</v>
+        <v>6.40112190493165</v>
       </c>
       <c r="J113">
         <v>6</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>13</v>
       </c>
       <c r="B114">
         <v>2248.30054</v>
@@ -4465,23 +4737,19 @@
       <c r="G114">
         <v>0.38393772686843</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H114" t="s">
+        <v>21</v>
       </c>
       <c r="I114">
-        <v>6.451837567236546</v>
+        <v>6.45183756723655</v>
       </c>
       <c r="J114">
         <v>7</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>13</v>
       </c>
       <c r="B115">
         <v>2554.32584</v>
@@ -4501,23 +4769,19 @@
       <c r="G115">
         <v>0.437873557921871</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H115" t="s">
+        <v>21</v>
       </c>
       <c r="I115">
-        <v>6.508925497985828</v>
+        <v>6.50892549798583</v>
       </c>
       <c r="J115">
         <v>8</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>10</v>
       </c>
       <c r="B116">
         <v>2883.37834</v>
@@ -4537,23 +4801,19 @@
       <c r="G116">
         <v>0.244443300420901</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H116" t="s">
+        <v>21</v>
       </c>
       <c r="I116">
-        <v>6.255754916786765</v>
+        <v>6.25575491678677</v>
       </c>
       <c r="J116">
         <v>9</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>14</v>
       </c>
       <c r="B117">
         <v>3188.41964</v>
@@ -4573,23 +4833,19 @@
       <c r="G117">
         <v>0.365348923641908</v>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H117" t="s">
+        <v>21</v>
       </c>
       <c r="I117">
-        <v>6.430284610152479</v>
+        <v>6.43028461015248</v>
       </c>
       <c r="J117">
         <v>10</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>14</v>
       </c>
       <c r="B118">
         <v>3493.46094</v>
@@ -4609,23 +4865,19 @@
       <c r="G118">
         <v>0.611289208222403</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H118" t="s">
+        <v>21</v>
       </c>
       <c r="I118">
-        <v>6.653823506715963</v>
+        <v>6.65382350671596</v>
       </c>
       <c r="J118">
         <v>11</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>10</v>
       </c>
       <c r="B119">
         <v>3822.51344</v>
@@ -4645,23 +4897,19 @@
       <c r="G119">
         <v>0.265103951265691</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H119" t="s">
+        <v>21</v>
       </c>
       <c r="I119">
-        <v>6.290992978711151</v>
+        <v>6.29099297871115</v>
       </c>
       <c r="J119">
         <v>12</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>13</v>
       </c>
       <c r="B120">
         <v>4128.53874</v>
@@ -4681,23 +4929,19 @@
       <c r="G120">
         <v>0.0287017071147838</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H120" t="s">
+        <v>21</v>
       </c>
       <c r="I120">
-        <v>5.325484506337061</v>
+        <v>5.32548450633706</v>
       </c>
       <c r="J120">
         <v>13</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>13</v>
       </c>
       <c r="B121">
         <v>4434.56404</v>
@@ -4717,23 +4961,19 @@
       <c r="G121">
         <v>0.352945052249856</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H121" t="s">
+        <v>21</v>
       </c>
       <c r="I121">
-        <v>6.415283876078217</v>
+        <v>6.41528387607822</v>
       </c>
       <c r="J121">
         <v>14</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>10</v>
       </c>
       <c r="B122">
         <v>4763.61654</v>
@@ -4753,23 +4993,19 @@
       <c r="G122">
         <v>0.113841941045546</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H122" t="s">
+        <v>21</v>
       </c>
       <c r="I122">
-        <v>5.923879069963234</v>
+        <v>5.92387906996323</v>
       </c>
       <c r="J122">
         <v>15</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>14</v>
       </c>
       <c r="B123">
         <v>5068.65784</v>
@@ -4789,23 +5025,19 @@
       <c r="G123">
         <v>0.178518500336462</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H123" t="s">
+        <v>21</v>
       </c>
       <c r="I123">
-        <v>6.119260007795744</v>
+        <v>6.11926000779574</v>
       </c>
       <c r="J123">
         <v>16</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>13</v>
       </c>
       <c r="B124">
         <v>5374.68314</v>
@@ -4825,23 +5057,19 @@
       <c r="G124">
         <v>0.18554346905321</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H124" t="s">
+        <v>21</v>
       </c>
       <c r="I124">
-        <v>6.136022450165806</v>
+        <v>6.13602245016581</v>
       </c>
       <c r="J124">
         <v>17</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>12</v>
       </c>
       <c r="B125">
         <v>5719.73054</v>
@@ -4861,23 +5089,19 @@
       <c r="G125">
         <v>0.14888758610889</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H125" t="s">
+        <v>21</v>
       </c>
       <c r="I125">
-        <v>6.040435266774304</v>
+        <v>6.0404352667743</v>
       </c>
       <c r="J125">
         <v>18</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>10</v>
       </c>
       <c r="B126">
         <v>6048.78304</v>
@@ -4897,23 +5121,19 @@
       <c r="G126">
         <v>0.16272619002825</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>dehydrated RNA-A 5'</t>
-        </is>
+      <c r="H126" t="s">
+        <v>21</v>
       </c>
       <c r="I126">
-        <v>6.079034234200742</v>
+        <v>6.07903423420074</v>
       </c>
       <c r="J126">
         <v>19</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>10</v>
       </c>
       <c r="B127">
         <v>1043.1115</v>
@@ -4933,23 +5153,19 @@
       <c r="G127">
         <v>0.0365168636588041</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H127" t="s">
+        <v>22</v>
       </c>
       <c r="I127">
-        <v>5.430070247956399</v>
+        <v>5.4300702479564</v>
       </c>
       <c r="J127">
         <v>3</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>14</v>
       </c>
       <c r="B128">
         <v>1348.1528</v>
@@ -4969,23 +5185,19 @@
       <c r="G128">
         <v>0.0571152832189676</v>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H128" t="s">
+        <v>22</v>
       </c>
       <c r="I128">
-        <v>5.624329112631373</v>
+        <v>5.62432911263137</v>
       </c>
       <c r="J128">
         <v>4</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>14</v>
       </c>
       <c r="B129">
         <v>1653.1941</v>
@@ -5005,23 +5217,19 @@
       <c r="G129">
         <v>0.0792052242701579</v>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H129" t="s">
+        <v>22</v>
       </c>
       <c r="I129">
-        <v>5.766330605963315</v>
+        <v>5.76633060596332</v>
       </c>
       <c r="J129">
         <v>5</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>12</v>
       </c>
       <c r="B130">
         <v>1998.2415</v>
@@ -5041,23 +5249,19 @@
       <c r="G130">
         <v>0.0556481151644411</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H130" t="s">
+        <v>22</v>
       </c>
       <c r="I130">
-        <v>5.613027237049827</v>
+        <v>5.61302723704983</v>
       </c>
       <c r="J130">
         <v>6</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>13</v>
       </c>
       <c r="B131">
         <v>2304.2668</v>
@@ -5069,7 +5273,7 @@
         <v>2304.26466873044</v>
       </c>
       <c r="E131">
-        <v>666219.8199999999</v>
+        <v>666219.82</v>
       </c>
       <c r="F131">
         <v>2.47913206971486</v>
@@ -5077,23 +5281,19 @@
       <c r="G131">
         <v>0.0903734310793373</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H131" t="s">
+        <v>22</v>
       </c>
       <c r="I131">
-        <v>5.823617548782343</v>
+        <v>5.82361754878234</v>
       </c>
       <c r="J131">
         <v>7</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>13</v>
       </c>
       <c r="B132">
         <v>2610.2921</v>
@@ -5113,23 +5313,19 @@
       <c r="G132">
         <v>0.143642583247739</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H132" t="s">
+        <v>22</v>
       </c>
       <c r="I132">
-        <v>6.024859984762959</v>
+        <v>6.02485998476296</v>
       </c>
       <c r="J132">
         <v>8</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>10</v>
       </c>
       <c r="B133">
         <v>2939.3446</v>
@@ -5147,25 +5343,21 @@
         <v>4.64573521173795</v>
       </c>
       <c r="G133">
-        <v>0.07440550011404649</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+        <v>0.0744055001140465</v>
+      </c>
+      <c r="H133" t="s">
+        <v>22</v>
       </c>
       <c r="I133">
-        <v>5.739181818076403</v>
+        <v>5.7391818180764</v>
       </c>
       <c r="J133">
         <v>9</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>14</v>
       </c>
       <c r="B134">
         <v>3244.3859</v>
@@ -5185,23 +5377,19 @@
       <c r="G134">
         <v>0.104997873852683</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H134" t="s">
+        <v>22</v>
       </c>
       <c r="I134">
-        <v>5.888757282890998</v>
+        <v>5.888757282891</v>
       </c>
       <c r="J134">
         <v>10</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>14</v>
       </c>
       <c r="B135">
         <v>3549.4272</v>
@@ -5221,26 +5409,22 @@
       <c r="G135">
         <v>0.156530490211886</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H135" t="s">
+        <v>22</v>
       </c>
       <c r="I135">
-        <v>6.062175723288156</v>
+        <v>6.06217572328816</v>
       </c>
       <c r="J135">
         <v>11</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>10</v>
       </c>
       <c r="B136">
-        <v>3878.479699999999</v>
+        <v>3878.4797</v>
       </c>
       <c r="C136">
         <v>12</v>
@@ -5252,28 +5436,24 @@
         <v>506519.32</v>
       </c>
       <c r="F136">
-        <v>8.992704387076699</v>
+        <v>8.9927043870767</v>
       </c>
       <c r="G136">
         <v>0.0687098874608276</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H136" t="s">
+        <v>22</v>
       </c>
       <c r="I136">
-        <v>5.704596015163958</v>
+        <v>5.70459601516396</v>
       </c>
       <c r="J136">
         <v>12</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>13</v>
       </c>
       <c r="B137">
         <v>4184.505</v>
@@ -5293,10 +5473,8 @@
       <c r="G137">
         <v>0.110008829784627</v>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H137" t="s">
+        <v>22</v>
       </c>
       <c r="I137">
         <v>5.90900432285996</v>
@@ -5305,11 +5483,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>13</v>
       </c>
       <c r="B138">
         <v>4490.5303</v>
@@ -5329,23 +5505,19 @@
       <c r="G138">
         <v>0.163351310851648</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H138" t="s">
+        <v>22</v>
       </c>
       <c r="I138">
-        <v>6.080699401873986</v>
+        <v>6.08069940187399</v>
       </c>
       <c r="J138">
         <v>14</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>14</v>
       </c>
       <c r="B139">
         <v>5124.6241</v>
@@ -5365,23 +5537,19 @@
       <c r="G139">
         <v>0.0902706686116669</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H139" t="s">
+        <v>22</v>
       </c>
       <c r="I139">
-        <v>5.823123437128029</v>
+        <v>5.82312343712803</v>
       </c>
       <c r="J139">
         <v>16</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>13</v>
       </c>
       <c r="B140">
         <v>5430.6494</v>
@@ -5393,7 +5561,7 @@
         <v>5430.63046934118</v>
       </c>
       <c r="E140">
-        <v>823222.5600000001</v>
+        <v>823222.56</v>
       </c>
       <c r="F140">
         <v>14.8805006201744</v>
@@ -5401,26 +5569,22 @@
       <c r="G140">
         <v>0.111671020668697</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H140" t="s">
+        <v>22</v>
       </c>
       <c r="I140">
-        <v>5.915517263539193</v>
+        <v>5.91551726353919</v>
       </c>
       <c r="J140">
         <v>17</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>12</v>
       </c>
       <c r="B141">
-        <v>5775.696800000001</v>
+        <v>5775.6968</v>
       </c>
       <c r="C141">
         <v>18</v>
@@ -5437,23 +5601,19 @@
       <c r="G141">
         <v>0.0548001481206421</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H141" t="s">
+        <v>22</v>
       </c>
       <c r="I141">
-        <v>5.606358510299629</v>
+        <v>5.60635851029963</v>
       </c>
       <c r="J141">
         <v>18</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>10</v>
       </c>
       <c r="B142">
         <v>6104.7493</v>
@@ -5473,26 +5633,22 @@
       <c r="G142">
         <v>0.0675322028580637</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H142" t="s">
+        <v>22</v>
       </c>
       <c r="I142">
-        <v>5.697087694313251</v>
+        <v>5.69708769431325</v>
       </c>
       <c r="J142">
         <v>19</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>12</v>
       </c>
       <c r="B143">
-        <v>6369.825630000001</v>
+        <v>6369.82563</v>
       </c>
       <c r="C143">
         <v>20</v>
@@ -5509,23 +5665,19 @@
       <c r="G143">
         <v>10.019178337484</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>K adducted RNA-A 5'</t>
-        </is>
+      <c r="H143" t="s">
+        <v>22</v>
       </c>
       <c r="I143">
-        <v>7.868408884896192</v>
+        <v>7.86840888489619</v>
       </c>
       <c r="J143">
         <v>20</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>10</v>
       </c>
       <c r="B144">
         <v>698.0931</v>
@@ -5545,23 +5697,19 @@
       <c r="G144">
         <v>0.0254246282310765</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H144" t="s">
+        <v>23</v>
       </c>
       <c r="I144">
-        <v>5.272831389164962</v>
+        <v>5.27283138916496</v>
       </c>
       <c r="J144">
         <v>2</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>10</v>
       </c>
       <c r="B145">
         <v>1027.1456</v>
@@ -5581,23 +5729,19 @@
       <c r="G145">
         <v>0.0267208528773998</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H145" t="s">
+        <v>23</v>
       </c>
       <c r="I145">
-        <v>5.294427093804442</v>
+        <v>5.29442709380444</v>
       </c>
       <c r="J145">
         <v>3</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>14</v>
       </c>
       <c r="B146">
         <v>1332.1869</v>
@@ -5617,23 +5761,19 @@
       <c r="G146">
         <v>0.0429931020954094</v>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H146" t="s">
+        <v>23</v>
       </c>
       <c r="I146">
-        <v>5.500975559988521</v>
+        <v>5.50097555998852</v>
       </c>
       <c r="J146">
         <v>4</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>14</v>
       </c>
       <c r="B147">
         <v>1637.2282</v>
@@ -5653,23 +5793,19 @@
       <c r="G147">
         <v>0.0540789537838081</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H147" t="s">
+        <v>23</v>
       </c>
       <c r="I147">
-        <v>5.600605059064286</v>
+        <v>5.60060505906429</v>
       </c>
       <c r="J147">
         <v>5</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>12</v>
       </c>
       <c r="B148">
         <v>1982.2756</v>
@@ -5689,23 +5825,19 @@
       <c r="G148">
         <v>0.0436433346447868</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H148" t="s">
+        <v>23</v>
       </c>
       <c r="I148">
-        <v>5.507494704156923</v>
+        <v>5.50749470415692</v>
       </c>
       <c r="J148">
         <v>6</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>13</v>
       </c>
       <c r="B149">
         <v>2288.3009</v>
@@ -5723,25 +5855,21 @@
         <v>2.47913206971486</v>
       </c>
       <c r="G149">
-        <v>0.06941399518895219</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+        <v>0.0694139951889522</v>
+      </c>
+      <c r="H149" t="s">
+        <v>23</v>
       </c>
       <c r="I149">
-        <v>5.709023819305084</v>
+        <v>5.70902381930508</v>
       </c>
       <c r="J149">
         <v>7</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>13</v>
       </c>
       <c r="B150">
         <v>2594.3262</v>
@@ -5761,23 +5889,19 @@
       <c r="G150">
         <v>0.112057927362036</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H150" t="s">
+        <v>23</v>
       </c>
       <c r="I150">
-        <v>5.917019363387394</v>
+        <v>5.91701936338739</v>
       </c>
       <c r="J150">
         <v>8</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>10</v>
       </c>
       <c r="B151">
         <v>2923.3787</v>
@@ -5795,25 +5919,21 @@
         <v>4.64573521173795</v>
       </c>
       <c r="G151">
-        <v>0.07849592653211571</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+        <v>0.0784959265321157</v>
+      </c>
+      <c r="H151" t="s">
+        <v>23</v>
       </c>
       <c r="I151">
-        <v>5.762423897999297</v>
+        <v>5.7624238979993</v>
       </c>
       <c r="J151">
         <v>9</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>14</v>
       </c>
       <c r="B152">
         <v>3228.42</v>
@@ -5833,23 +5953,19 @@
       <c r="G152">
         <v>0.105410003505878</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H152" t="s">
+        <v>23</v>
       </c>
       <c r="I152">
-        <v>5.890458605725066</v>
+        <v>5.89045860572507</v>
       </c>
       <c r="J152">
         <v>10</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>14</v>
       </c>
       <c r="B153">
         <v>3533.4613</v>
@@ -5869,23 +5985,19 @@
       <c r="G153">
         <v>0.153643395944284</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H153" t="s">
+        <v>23</v>
       </c>
       <c r="I153">
-        <v>6.054090675657901</v>
+        <v>6.0540906756579</v>
       </c>
       <c r="J153">
         <v>11</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>10</v>
       </c>
       <c r="B154">
         <v>3862.5138</v>
@@ -5900,28 +6012,24 @@
         <v>604948.05</v>
       </c>
       <c r="F154">
-        <v>8.992704387076699</v>
+        <v>8.9927043870767</v>
       </c>
       <c r="G154">
         <v>0.0820618499510484</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H154" t="s">
+        <v>23</v>
       </c>
       <c r="I154">
-        <v>5.781718081153217</v>
+        <v>5.78171808115322</v>
       </c>
       <c r="J154">
         <v>12</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>13</v>
       </c>
       <c r="B155">
         <v>4168.5391</v>
@@ -5941,23 +6049,19 @@
       <c r="G155">
         <v>0.124018674188033</v>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H155" t="s">
+        <v>23</v>
       </c>
       <c r="I155">
-        <v>5.961063862193093</v>
+        <v>5.96106386219309</v>
       </c>
       <c r="J155">
         <v>13</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>13</v>
       </c>
       <c r="B156">
         <v>4474.5644</v>
@@ -5972,15 +6076,13 @@
         <v>34540.19</v>
       </c>
       <c r="F156">
-        <v>8.840122486718499</v>
+        <v>8.8401224867185</v>
       </c>
       <c r="G156">
         <v>0.00468541371289767</v>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H156" t="s">
+        <v>23</v>
       </c>
       <c r="I156">
         <v>4.53832472222173</v>
@@ -5989,11 +6091,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>10</v>
       </c>
       <c r="B157">
         <v>4803.6169</v>
@@ -6013,10 +6113,8 @@
       <c r="G157">
         <v>0.0585795388450327</v>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H157" t="s">
+        <v>23</v>
       </c>
       <c r="I157">
         <v>5.63532272641669</v>
@@ -6025,11 +6123,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>14</v>
       </c>
       <c r="B158">
         <v>5108.6582</v>
@@ -6049,23 +6145,19 @@
       <c r="G158">
         <v>0.10080174812129</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H158" t="s">
+        <v>23</v>
       </c>
       <c r="I158">
-        <v>5.871044841733216</v>
+        <v>5.87104484173322</v>
       </c>
       <c r="J158">
         <v>16</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>13</v>
       </c>
       <c r="B159">
         <v>5414.6835</v>
@@ -6085,23 +6177,19 @@
       <c r="G159">
         <v>0.127218954218764</v>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H159" t="s">
+        <v>23</v>
       </c>
       <c r="I159">
-        <v>5.972128599161751</v>
+        <v>5.97212859916175</v>
       </c>
       <c r="J159">
         <v>17</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>12</v>
       </c>
       <c r="B160">
         <v>5759.7309</v>
@@ -6121,23 +6209,19 @@
       <c r="G160">
         <v>0.0610490285822768</v>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H160" t="s">
+        <v>23</v>
       </c>
       <c r="I160">
-        <v>5.653255535751031</v>
+        <v>5.65325553575103</v>
       </c>
       <c r="J160">
         <v>18</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>10</v>
       </c>
       <c r="B161">
         <v>6088.7834</v>
@@ -6157,26 +6241,22 @@
       <c r="G161">
         <v>0.0787482470168886</v>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H161" t="s">
+        <v>23</v>
       </c>
       <c r="I161">
-        <v>5.763817672862781</v>
+        <v>5.76381767286278</v>
       </c>
       <c r="J161">
         <v>19</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>12</v>
       </c>
       <c r="B162">
-        <v>6353.859730000001</v>
+        <v>6353.85973</v>
       </c>
       <c r="C162">
         <v>20</v>
@@ -6193,23 +6273,19 @@
       <c r="G162">
         <v>4.50809045448189</v>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Na adducted RNA-A 5'</t>
-        </is>
+      <c r="H162" t="s">
+        <v>23</v>
       </c>
       <c r="I162">
-        <v>7.521569399494902</v>
+        <v>7.5215693994949</v>
       </c>
       <c r="J162">
         <v>20</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>13</v>
       </c>
       <c r="B163">
         <v>2348.23016</v>
@@ -6229,23 +6305,19 @@
       <c r="G163">
         <v>0.00382455032192493</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H163" t="s">
+        <v>24</v>
       </c>
       <c r="I163">
-        <v>4.450157157520078</v>
+        <v>4.45015715752008</v>
       </c>
       <c r="J163">
         <v>7</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>13</v>
       </c>
       <c r="B164">
         <v>2654.25546</v>
@@ -6265,23 +6337,19 @@
       <c r="G164">
         <v>0.0108221962002616</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H164" t="s">
+        <v>24</v>
       </c>
       <c r="I164">
-        <v>4.901892181128515</v>
+        <v>4.90189218112851</v>
       </c>
       <c r="J164">
         <v>8</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>10</v>
       </c>
       <c r="B165">
         <v>2983.30796</v>
@@ -6301,23 +6369,19 @@
       <c r="G165">
         <v>0.00274257433121952</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H165" t="s">
+        <v>24</v>
       </c>
       <c r="I165">
-        <v>4.305735184915906</v>
+        <v>4.30573518491591</v>
       </c>
       <c r="J165">
         <v>9</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>14</v>
       </c>
       <c r="B166">
         <v>3288.34926</v>
@@ -6337,23 +6401,19 @@
       <c r="G166">
         <v>0.00570335968579593</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H166" t="s">
+        <v>24</v>
       </c>
       <c r="I166">
-        <v>4.623707539439161</v>
+        <v>4.62370753943916</v>
       </c>
       <c r="J166">
         <v>10</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>14</v>
       </c>
       <c r="B167">
         <v>3593.39056</v>
@@ -6373,23 +6433,19 @@
       <c r="G167">
         <v>0.00680887385007427</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H167" t="s">
+        <v>24</v>
       </c>
       <c r="I167">
-        <v>4.700652065905199</v>
+        <v>4.7006520659052</v>
       </c>
       <c r="J167">
         <v>11</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>13</v>
       </c>
       <c r="B168">
         <v>4228.46836</v>
@@ -6409,23 +6465,19 @@
       <c r="G168">
         <v>0.00399908983997944</v>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H168" t="s">
+        <v>24</v>
       </c>
       <c r="I168">
-        <v>4.469537938663576</v>
+        <v>4.46953793866358</v>
       </c>
       <c r="J168">
         <v>13</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>13</v>
       </c>
       <c r="B169">
         <v>4534.49366</v>
@@ -6445,10 +6497,8 @@
       <c r="G169">
         <v>0.0118699799823986</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H169" t="s">
+        <v>24</v>
       </c>
       <c r="I169">
         <v>4.94202676450718</v>
@@ -6457,11 +6507,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>10</v>
       </c>
       <c r="B170">
         <v>4863.54616</v>
@@ -6481,23 +6529,19 @@
       <c r="G170">
         <v>0.00286507131647519</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H170" t="s">
+        <v>24</v>
       </c>
       <c r="I170">
-        <v>4.324712214711447</v>
+        <v>4.32471221471145</v>
       </c>
       <c r="J170">
         <v>15</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>13</v>
       </c>
       <c r="B171">
         <v>5474.61276</v>
@@ -6517,23 +6561,19 @@
       <c r="G171">
         <v>0.0087186008056969</v>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2Na1K adducted RNA-A 5'</t>
-        </is>
+      <c r="H171" t="s">
+        <v>24</v>
       </c>
       <c r="I171">
-        <v>4.808023571238743</v>
+        <v>4.80802357123874</v>
       </c>
       <c r="J171">
         <v>17</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>14</v>
       </c>
       <c r="B172">
         <v>1370.12379</v>
@@ -6545,31 +6585,27 @@
         <v>1370.13316032613</v>
       </c>
       <c r="E172">
-        <v>67829.74000000001</v>
+        <v>67829.74</v>
       </c>
       <c r="F172">
         <v>1.24184666233063</v>
       </c>
       <c r="G172">
-        <v>0.009201176772284211</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+        <v>0.00920117677228421</v>
+      </c>
+      <c r="H172" t="s">
+        <v>25</v>
       </c>
       <c r="I172">
-        <v>4.831420152362358</v>
+        <v>4.83142015236236</v>
       </c>
       <c r="J172">
         <v>4</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>14</v>
       </c>
       <c r="B173">
         <v>1675.16509</v>
@@ -6589,23 +6625,19 @@
       <c r="G173">
         <v>0.0107460552549729</v>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H173" t="s">
+        <v>25</v>
       </c>
       <c r="I173">
-        <v>4.898825847279044</v>
+        <v>4.89882584727904</v>
       </c>
       <c r="J173">
         <v>5</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>12</v>
       </c>
       <c r="B174">
         <v>2020.21249</v>
@@ -6625,23 +6657,19 @@
       <c r="G174">
         <v>0.0104809442308605</v>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H174" t="s">
+        <v>25</v>
       </c>
       <c r="I174">
-        <v>4.887977188056271</v>
+        <v>4.88797718805627</v>
       </c>
       <c r="J174">
         <v>6</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>13</v>
       </c>
       <c r="B175">
         <v>2326.23779</v>
@@ -6661,23 +6689,19 @@
       <c r="G175">
         <v>0.0206768218087801</v>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H175" t="s">
+        <v>25</v>
       </c>
       <c r="I175">
-        <v>5.183060562999993</v>
+        <v>5.18306056299999</v>
       </c>
       <c r="J175">
         <v>7</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>13</v>
       </c>
       <c r="B176">
         <v>2632.26309</v>
@@ -6697,23 +6721,19 @@
       <c r="G176">
         <v>0.0364781407045156</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H176" t="s">
+        <v>25</v>
       </c>
       <c r="I176">
-        <v>5.429609472124007</v>
+        <v>5.42960947212401</v>
       </c>
       <c r="J176">
         <v>8</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>10</v>
       </c>
       <c r="B177">
         <v>2961.31559</v>
@@ -6733,23 +6753,19 @@
       <c r="G177">
         <v>0.0189705741703708</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H177" t="s">
+        <v>25</v>
       </c>
       <c r="I177">
-        <v>5.145657253552652</v>
+        <v>5.14565725355265</v>
       </c>
       <c r="J177">
         <v>9</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>14</v>
       </c>
       <c r="B178">
         <v>3266.35689</v>
@@ -6769,23 +6785,19 @@
       <c r="G178">
         <v>0.025284149340053</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H178" t="s">
+        <v>25</v>
       </c>
       <c r="I178">
-        <v>5.270425124758989</v>
+        <v>5.27042512475899</v>
       </c>
       <c r="J178">
         <v>10</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>14</v>
       </c>
       <c r="B179">
         <v>3571.39819</v>
@@ -6805,23 +6817,19 @@
       <c r="G179">
         <v>0.0303237954731885</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H179" t="s">
+        <v>25</v>
       </c>
       <c r="I179">
-        <v>5.349360336712742</v>
+        <v>5.34936033671274</v>
       </c>
       <c r="J179">
         <v>11</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>10</v>
       </c>
       <c r="B180">
         <v>3900.45069</v>
@@ -6836,28 +6844,24 @@
         <v>37266.94</v>
       </c>
       <c r="F180">
-        <v>8.916411927906671</v>
+        <v>8.91641192790667</v>
       </c>
       <c r="G180">
         <v>0.00505530026655136</v>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H180" t="s">
+        <v>25</v>
       </c>
       <c r="I180">
-        <v>4.571323734163204</v>
+        <v>4.5713237341632</v>
       </c>
       <c r="J180">
         <v>12</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
+        <v>13</v>
       </c>
       <c r="B181">
         <v>4206.47599</v>
@@ -6877,23 +6881,19 @@
       <c r="G181">
         <v>0.011637708725692</v>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H181" t="s">
+        <v>25</v>
       </c>
       <c r="I181">
-        <v>4.933444261205786</v>
+        <v>4.93344426120579</v>
       </c>
       <c r="J181">
         <v>13</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
+        <v>13</v>
       </c>
       <c r="B182">
         <v>4512.50129</v>
@@ -6913,23 +6913,19 @@
       <c r="G182">
         <v>0.0327408696371928</v>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H182" t="s">
+        <v>25</v>
       </c>
       <c r="I182">
-        <v>5.382666988565747</v>
+        <v>5.38266698856575</v>
       </c>
       <c r="J182">
         <v>14</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
+        <v>10</v>
       </c>
       <c r="B183">
         <v>4841.55379</v>
@@ -6941,7 +6937,7 @@
         <v>4841.56155495415</v>
       </c>
       <c r="E183">
-        <v>92452.39999999999</v>
+        <v>92452.4</v>
       </c>
       <c r="F183">
         <v>13.2548414365133</v>
@@ -6949,23 +6945,19 @@
       <c r="G183">
         <v>0.012541266934267</v>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H183" t="s">
+        <v>25</v>
       </c>
       <c r="I183">
-        <v>4.965918189624209</v>
+        <v>4.96591818962421</v>
       </c>
       <c r="J183">
         <v>15</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
+        <v>14</v>
       </c>
       <c r="B184">
         <v>5146.59509</v>
@@ -6985,23 +6977,19 @@
       <c r="G184">
         <v>0.0196062472904629</v>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H184" t="s">
+        <v>25</v>
       </c>
       <c r="I184">
-        <v>5.159971253971996</v>
+        <v>5.159971253972</v>
       </c>
       <c r="J184">
         <v>16</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>13</v>
       </c>
       <c r="B185">
         <v>5452.62039</v>
@@ -7021,23 +7009,19 @@
       <c r="G185">
         <v>0.0272547483565857</v>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H185" t="s">
+        <v>25</v>
       </c>
       <c r="I185">
-        <v>5.303018954484777</v>
+        <v>5.30301895448478</v>
       </c>
       <c r="J185">
         <v>17</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
+        <v>10</v>
       </c>
       <c r="B186">
         <v>6126.72029</v>
@@ -7057,26 +7041,22 @@
       <c r="G186">
         <v>0.0105789344939073</v>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H186" t="s">
+        <v>25</v>
       </c>
       <c r="I186">
-        <v>4.892018705882273</v>
+        <v>4.89201870588227</v>
       </c>
       <c r="J186">
         <v>19</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>12</v>
       </c>
       <c r="B187">
-        <v>6391.796620000001</v>
+        <v>6391.79662</v>
       </c>
       <c r="C187">
         <v>20</v>
@@ -7093,23 +7073,19 @@
       <c r="G187">
         <v>0.328409497406157</v>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>NaK adducted RNA-A 5'</t>
-        </is>
+      <c r="H187" t="s">
+        <v>25</v>
       </c>
       <c r="I187">
-        <v>6.383992486114209</v>
+        <v>6.38399248611421</v>
       </c>
       <c r="J187">
         <v>20</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>14</v>
       </c>
       <c r="B188">
         <v>3612.5941</v>
@@ -7129,23 +7105,19 @@
       <c r="G188">
         <v>0.00354649547276448</v>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 5'</t>
-        </is>
+      <c r="H188" t="s">
+        <v>26</v>
       </c>
       <c r="I188">
-        <v>4.417376187740226</v>
+        <v>4.41737618774023</v>
       </c>
       <c r="J188">
         <v>11</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
+        <v>13</v>
       </c>
       <c r="B189">
         <v>4553.6972</v>
@@ -7157,7 +7129,7 @@
         <v>4553.69593718255</v>
       </c>
       <c r="E189">
-        <v>78155.96000000001</v>
+        <v>78155.96</v>
       </c>
       <c r="F189">
         <v>11.159461112388</v>
@@ -7165,26 +7137,22 @@
       <c r="G189">
         <v>0.0106019395587772</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 5'</t>
-        </is>
+      <c r="H189" t="s">
+        <v>26</v>
       </c>
       <c r="I189">
-        <v>4.892962101951072</v>
+        <v>4.89296210195107</v>
       </c>
       <c r="J189">
         <v>14</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
+        <v>14</v>
       </c>
       <c r="B190">
-        <v>5187.790999999999</v>
+        <v>5187.791</v>
       </c>
       <c r="C190">
         <v>16</v>
@@ -7201,23 +7169,19 @@
       <c r="G190">
         <v>0.00698492452104258</v>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 5'</t>
-        </is>
+      <c r="H190" t="s">
+        <v>26</v>
       </c>
       <c r="I190">
-        <v>4.711738495446545</v>
+        <v>4.71173849544654</v>
       </c>
       <c r="J190">
         <v>16</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
+        <v>13</v>
       </c>
       <c r="B191">
         <v>5493.8163</v>
@@ -7237,10 +7201,8 @@
       <c r="G191">
         <v>0.0290696904839329</v>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 5'</t>
-        </is>
+      <c r="H191" t="s">
+        <v>26</v>
       </c>
       <c r="I191">
         <v>5.33101718564492</v>
@@ -7249,11 +7211,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
+        <v>12</v>
       </c>
       <c r="B192">
         <v>5838.8637</v>
@@ -7273,10 +7233,8 @@
       <c r="G192">
         <v>0.0324035135665066</v>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 5'</t>
-        </is>
+      <c r="H192" t="s">
+        <v>26</v>
       </c>
       <c r="I192">
         <v>5.37816888197666</v>
@@ -7285,11 +7243,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
+        <v>10</v>
       </c>
       <c r="B193">
         <v>6167.9162</v>
@@ -7309,23 +7265,19 @@
       <c r="G193">
         <v>0.0513234288449871</v>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 5'</t>
-        </is>
+      <c r="H193" t="s">
+        <v>26</v>
       </c>
       <c r="I193">
-        <v>5.577892441214918</v>
+        <v>5.57789244121492</v>
       </c>
       <c r="J193">
         <v>19</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>12</v>
       </c>
       <c r="B194">
         <v>6432.99253</v>
@@ -7343,15 +7295,13 @@
         <v>15.9668028866927</v>
       </c>
       <c r="G194">
-        <v>8.938732484059569</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>triethylamine adducted RNA-A 5'</t>
-        </is>
+        <v>8.93873248405957</v>
+      </c>
+      <c r="H194" t="s">
+        <v>26</v>
       </c>
       <c r="I194">
-        <v>7.818852717974359</v>
+        <v>7.81885271797436</v>
       </c>
       <c r="J194">
         <v>20</v>
@@ -7359,5 +7309,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>